--- a/doc/qualitas_corpus_in_perfume.xlsx
+++ b/doc/qualitas_corpus_in_perfume.xlsx
@@ -696,10 +696,6 @@
     <t>JAG</t>
   </si>
   <si>
-    <t>3.0 beta4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Java Assembling Language</t>
   </si>
   <si>
@@ -1164,6 +1160,10 @@
   </si>
   <si>
     <t>EMMA: a free Java code coverage tool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.3.2.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1579,8 +1579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1623,7 +1623,7 @@
         <v>28</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1655,7 +1655,7 @@
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1689,7 +1689,7 @@
         <v>31</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1700,13 +1700,13 @@
         <v>8</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1740,7 +1740,7 @@
         <v>33</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1768,11 +1768,11 @@
         <v>12</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1783,13 +1783,13 @@
         <v>13</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>42</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1823,7 +1823,7 @@
         <v>45</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1840,7 +1840,7 @@
         <v>47</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1936,7 +1936,7 @@
         <v>21</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
@@ -1968,7 +1968,7 @@
         <v>63</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
@@ -1986,7 +1986,7 @@
         <v>79</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>46</v>
@@ -2000,7 +2000,7 @@
         <v>159</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>72</v>
@@ -2049,7 +2049,7 @@
         <v>67</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>74</v>
@@ -2115,7 +2115,7 @@
         <v>80</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D32" t="s">
         <v>166</v>
@@ -2132,7 +2132,7 @@
         <v>81</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D33" t="s">
         <v>167</v>
@@ -2166,7 +2166,7 @@
         <v>83</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D35" t="s">
         <v>169</v>
@@ -2180,10 +2180,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C36" s="8" t="s">
         <v>270</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>271</v>
       </c>
       <c r="D36" t="s">
         <v>170</v>
@@ -2200,7 +2200,7 @@
         <v>84</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D37" t="s">
         <v>171</v>
@@ -2217,7 +2217,7 @@
         <v>85</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D38" t="s">
         <v>172</v>
@@ -2251,7 +2251,7 @@
         <v>87</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D40" t="s">
         <v>174</v>
@@ -2268,7 +2268,7 @@
         <v>88</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D41" t="s">
         <v>175</v>
@@ -2285,7 +2285,7 @@
         <v>89</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D42" t="s">
         <v>176</v>
@@ -2319,7 +2319,7 @@
         <v>91</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D44" t="s">
         <v>179</v>
@@ -2353,7 +2353,7 @@
         <v>93</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>181</v>
+        <v>310</v>
       </c>
       <c r="E46" t="s">
         <v>48</v>
@@ -2370,7 +2370,7 @@
         <v>0.1</v>
       </c>
       <c r="D47" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E47" t="s">
         <v>48</v>
@@ -2384,10 +2384,10 @@
         <v>95</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D48" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E48" t="s">
         <v>38</v>
@@ -2415,7 +2415,7 @@
         <v>97</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E50" t="s">
         <v>41</v>
@@ -2429,7 +2429,7 @@
         <v>98</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E51" t="s">
         <v>50</v>
@@ -2443,10 +2443,10 @@
         <v>99</v>
       </c>
       <c r="C52" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="D52" t="s">
         <v>184</v>
-      </c>
-      <c r="D52" t="s">
-        <v>185</v>
       </c>
       <c r="E52" t="s">
         <v>48</v>
@@ -2460,10 +2460,10 @@
         <v>100</v>
       </c>
       <c r="C53" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D53" t="s">
         <v>186</v>
-      </c>
-      <c r="D53" t="s">
-        <v>187</v>
       </c>
       <c r="E53" t="s">
         <v>41</v>
@@ -2491,10 +2491,10 @@
         <v>102</v>
       </c>
       <c r="C55" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="D55" t="s">
         <v>188</v>
-      </c>
-      <c r="D55" t="s">
-        <v>189</v>
       </c>
       <c r="E55" t="s">
         <v>48</v>
@@ -2505,10 +2505,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E56" t="s">
         <v>48</v>
@@ -2519,10 +2519,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E57" t="s">
         <v>48</v>
@@ -2536,10 +2536,10 @@
         <v>103</v>
       </c>
       <c r="C58" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="D58" t="s">
         <v>190</v>
-      </c>
-      <c r="D58" t="s">
-        <v>191</v>
       </c>
       <c r="E58" t="s">
         <v>48</v>
@@ -2556,7 +2556,7 @@
         <v>3.5</v>
       </c>
       <c r="D59" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E59" t="s">
         <v>48</v>
@@ -2587,7 +2587,7 @@
         <v>2.13</v>
       </c>
       <c r="D61" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E61" t="s">
         <v>46</v>
@@ -2601,7 +2601,7 @@
         <v>107</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E62" t="s">
         <v>48</v>
@@ -2615,7 +2615,7 @@
         <v>108</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E63" t="s">
         <v>37</v>
@@ -2632,7 +2632,7 @@
         <v>0.96</v>
       </c>
       <c r="E64" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2643,10 +2643,10 @@
         <v>110</v>
       </c>
       <c r="C65" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="D65" t="s">
         <v>196</v>
-      </c>
-      <c r="D65" t="s">
-        <v>197</v>
       </c>
       <c r="E65" t="s">
         <v>50</v>
@@ -2660,10 +2660,10 @@
         <v>111</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D66" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E66" t="s">
         <v>46</v>
@@ -2677,7 +2677,7 @@
         <v>112</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E67" t="s">
         <v>39</v>
@@ -2691,7 +2691,7 @@
         <v>113</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E68" t="s">
         <v>48</v>
@@ -2705,10 +2705,10 @@
         <v>114</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D69" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E69" t="s">
         <v>39</v>
@@ -2722,7 +2722,7 @@
         <v>115</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E70" t="s">
         <v>48</v>
@@ -2736,10 +2736,10 @@
         <v>116</v>
       </c>
       <c r="C71" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="D71" t="s">
         <v>201</v>
-      </c>
-      <c r="D71" t="s">
-        <v>202</v>
       </c>
       <c r="E71" t="s">
         <v>41</v>
@@ -2753,7 +2753,7 @@
         <v>117</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E72" t="s">
         <v>48</v>
@@ -2770,7 +2770,7 @@
         <v>8.6</v>
       </c>
       <c r="D73" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E73" t="s">
         <v>41</v>
@@ -2784,7 +2784,7 @@
         <v>119</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E74" t="s">
         <v>38</v>
@@ -2801,7 +2801,7 @@
         <v>5</v>
       </c>
       <c r="D75" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E75" t="s">
         <v>46</v>
@@ -2815,10 +2815,10 @@
         <v>121</v>
       </c>
       <c r="C76" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="D76" t="s">
         <v>207</v>
-      </c>
-      <c r="D76" t="s">
-        <v>208</v>
       </c>
       <c r="E76" t="s">
         <v>46</v>
@@ -2832,10 +2832,10 @@
         <v>122</v>
       </c>
       <c r="C77" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="D77" t="s">
         <v>209</v>
-      </c>
-      <c r="D77" t="s">
-        <v>210</v>
       </c>
       <c r="E77" t="s">
         <v>48</v>
@@ -2849,10 +2849,10 @@
         <v>123</v>
       </c>
       <c r="C78" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="D78" t="s">
         <v>211</v>
-      </c>
-      <c r="D78" t="s">
-        <v>212</v>
       </c>
       <c r="E78" t="s">
         <v>75</v>
@@ -2866,7 +2866,7 @@
         <v>124</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E79" t="s">
         <v>36</v>
@@ -2880,10 +2880,10 @@
         <v>125</v>
       </c>
       <c r="C80" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="D80" t="s">
         <v>214</v>
-      </c>
-      <c r="D80" t="s">
-        <v>215</v>
       </c>
       <c r="E80" t="s">
         <v>75</v>
@@ -2897,10 +2897,10 @@
         <v>126</v>
       </c>
       <c r="C81" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="D81" t="s">
         <v>216</v>
-      </c>
-      <c r="D81" t="s">
-        <v>217</v>
       </c>
       <c r="E81" t="s">
         <v>48</v>
@@ -2914,10 +2914,10 @@
         <v>127</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D82" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E82" t="s">
         <v>41</v>
@@ -2931,10 +2931,10 @@
         <v>128</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D83" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E83" t="s">
         <v>44</v>
@@ -2948,10 +2948,10 @@
         <v>129</v>
       </c>
       <c r="C84" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="D84" t="s">
         <v>220</v>
-      </c>
-      <c r="D84" t="s">
-        <v>221</v>
       </c>
       <c r="E84" t="s">
         <v>36</v>
@@ -2968,7 +2968,7 @@
         <v>20151025000</v>
       </c>
       <c r="D85" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E85" t="s">
         <v>44</v>
@@ -2982,10 +2982,10 @@
         <v>158</v>
       </c>
       <c r="C86" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="D86" t="s">
         <v>223</v>
-      </c>
-      <c r="D86" t="s">
-        <v>224</v>
       </c>
       <c r="E86" t="s">
         <v>41</v>
@@ -3002,7 +3002,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="D87" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E87" t="s">
         <v>41</v>
@@ -3016,10 +3016,10 @@
         <v>132</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D88" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E88" t="s">
         <v>41</v>
@@ -3033,10 +3033,10 @@
         <v>133</v>
       </c>
       <c r="C89" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="D89" t="s">
         <v>227</v>
-      </c>
-      <c r="D89" t="s">
-        <v>228</v>
       </c>
       <c r="E89" t="s">
         <v>46</v>
@@ -3053,7 +3053,7 @@
         <v>3.13</v>
       </c>
       <c r="D90" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E90" t="s">
         <v>48</v>
@@ -3070,7 +3070,7 @@
         <v>80505</v>
       </c>
       <c r="D91" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E91" t="s">
         <v>48</v>
@@ -3084,10 +3084,10 @@
         <v>136</v>
       </c>
       <c r="C92" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="D92" t="s">
         <v>231</v>
-      </c>
-      <c r="D92" t="s">
-        <v>232</v>
       </c>
       <c r="E92" t="s">
         <v>48</v>
@@ -3101,10 +3101,10 @@
         <v>137</v>
       </c>
       <c r="C93" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="D93" t="s">
         <v>233</v>
-      </c>
-      <c r="D93" t="s">
-        <v>234</v>
       </c>
       <c r="E93" t="s">
         <v>41</v>
@@ -3118,10 +3118,10 @@
         <v>138</v>
       </c>
       <c r="C94" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="D94" t="s">
         <v>235</v>
-      </c>
-      <c r="D94" t="s">
-        <v>236</v>
       </c>
       <c r="E94" t="s">
         <v>41</v>
@@ -3135,10 +3135,10 @@
         <v>139</v>
       </c>
       <c r="C95" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="D95" t="s">
         <v>237</v>
-      </c>
-      <c r="D95" t="s">
-        <v>238</v>
       </c>
       <c r="E95" t="s">
         <v>46</v>
@@ -3152,10 +3152,10 @@
         <v>140</v>
       </c>
       <c r="C96" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="D96" t="s">
         <v>239</v>
-      </c>
-      <c r="D96" t="s">
-        <v>240</v>
       </c>
       <c r="E96" t="s">
         <v>48</v>
@@ -3169,10 +3169,10 @@
         <v>141</v>
       </c>
       <c r="C97" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="D97" t="s">
         <v>241</v>
-      </c>
-      <c r="D97" t="s">
-        <v>242</v>
       </c>
       <c r="E97" t="s">
         <v>48</v>
@@ -3189,7 +3189,7 @@
         <v>3.7</v>
       </c>
       <c r="D98" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E98" t="s">
         <v>36</v>
@@ -3220,7 +3220,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="D100" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E100" t="s">
         <v>41</v>
@@ -3234,10 +3234,10 @@
         <v>145</v>
       </c>
       <c r="C101" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="D101" t="s">
         <v>245</v>
-      </c>
-      <c r="D101" t="s">
-        <v>246</v>
       </c>
       <c r="E101" t="s">
         <v>40</v>
@@ -3251,10 +3251,10 @@
         <v>146</v>
       </c>
       <c r="C102" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="D102" t="s">
         <v>247</v>
-      </c>
-      <c r="D102" t="s">
-        <v>248</v>
       </c>
       <c r="E102" t="s">
         <v>41</v>
@@ -3268,7 +3268,7 @@
         <v>147</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E103" t="s">
         <v>37</v>
@@ -3282,10 +3282,10 @@
         <v>148</v>
       </c>
       <c r="C104" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="D104" t="s">
         <v>250</v>
-      </c>
-      <c r="D104" t="s">
-        <v>251</v>
       </c>
       <c r="E104" t="s">
         <v>41</v>
@@ -3299,10 +3299,10 @@
         <v>149</v>
       </c>
       <c r="C105" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="D105" t="s">
         <v>252</v>
-      </c>
-      <c r="D105" t="s">
-        <v>253</v>
       </c>
       <c r="E105" t="s">
         <v>41</v>
@@ -3316,10 +3316,10 @@
         <v>150</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D106" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E106" t="s">
         <v>50</v>
@@ -3333,10 +3333,10 @@
         <v>151</v>
       </c>
       <c r="C107" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D107" t="s">
         <v>255</v>
-      </c>
-      <c r="D107" t="s">
-        <v>256</v>
       </c>
       <c r="E107" t="s">
         <v>38</v>
@@ -3350,10 +3350,10 @@
         <v>152</v>
       </c>
       <c r="C108" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="D108" t="s">
         <v>257</v>
-      </c>
-      <c r="D108" t="s">
-        <v>258</v>
       </c>
       <c r="E108" t="s">
         <v>48</v>
@@ -3367,10 +3367,10 @@
         <v>153</v>
       </c>
       <c r="C109" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="D109" t="s">
         <v>259</v>
-      </c>
-      <c r="D109" t="s">
-        <v>260</v>
       </c>
       <c r="E109" t="s">
         <v>48</v>
@@ -3384,10 +3384,10 @@
         <v>154</v>
       </c>
       <c r="C110" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="D110" t="s">
         <v>261</v>
-      </c>
-      <c r="D110" t="s">
-        <v>262</v>
       </c>
       <c r="E110" t="s">
         <v>48</v>
@@ -3401,10 +3401,10 @@
         <v>155</v>
       </c>
       <c r="C111" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D111" t="s">
         <v>263</v>
-      </c>
-      <c r="D111" t="s">
-        <v>264</v>
       </c>
       <c r="E111" t="s">
         <v>36</v>
@@ -3418,10 +3418,10 @@
         <v>156</v>
       </c>
       <c r="C112" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="D112" t="s">
         <v>265</v>
-      </c>
-      <c r="D112" t="s">
-        <v>266</v>
       </c>
       <c r="E112" t="s">
         <v>36</v>
@@ -3435,10 +3435,10 @@
         <v>157</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D113" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E113" t="s">
         <v>41</v>
